--- a/Consumer/TJX Companies.xlsx
+++ b/Consumer/TJX Companies.xlsx
@@ -5,36 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45E5F57-C9ED-9F43-9EBE-4DCB8D186F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE166662-D369-074B-A7CC-F4D1105FB77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AL$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AL$106</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1027,6 +1008,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1038,12 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2533,9 +2514,11 @@
     <v>Powered by Refinitiv</v>
     <v>83.129900000000006</v>
     <v>53.69</v>
-    <v>0.90920000000000001</v>
-    <v>0.25</v>
-    <v>3.215E-3</v>
+    <v>0.90680000000000005</v>
+    <v>0.08</v>
+    <v>1.026E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>The TJX Companies, Inc. is an off-price apparel and home fashions retailer in the United States and worldwide. The Company’s segments include Marmaxx and HomeGoods, TJX Canada and TJX International. The T.J. Maxx and Marshalls chains in the United States (Marmaxx) are collectively the off-price retailers in the United States with a total of 2,482 stores. HomeGoods segment is an off-price retailer of home fashions in the United States with approximately 894 stores. HomeGoods offers an eclectic assortment of home fashions, including furniture, rugs, lighting, soft home, decorative accessories, tabletop and cookware, as well as expanded pet and gourmet food departments. The TJX Canada segment operates the Winners, HomeSense and Marshalls chains in Canada. Winners is the off-price family apparel and home fashions retailer in Canada. The TJX International segment operates the T.K. Maxx and Homesense chains in Europe and the T.K. Maxx chain in Australia.</v>
     <v>329000</v>
@@ -2543,24 +2526,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>770 Cochituate Rd, FRAMINGHAM, MA, 01701 US</v>
-    <v>78.040000000000006</v>
+    <v>78.349999999999994</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45035.958333344533</v>
+    <v>45057.998924628904</v>
     <v>0</v>
-    <v>77.47</v>
-    <v>89911907690</v>
+    <v>77.435000000000002</v>
+    <v>89885543580</v>
     <v>THE TJX COMPANIES, INC.</v>
     <v>THE TJX COMPANIES, INC.</v>
-    <v>77.61</v>
-    <v>26.236799999999999</v>
-    <v>77.760000000000005</v>
-    <v>78.010000000000005</v>
-    <v>1152569000</v>
+    <v>78.17</v>
+    <v>26.226700000000001</v>
+    <v>77.98</v>
+    <v>78.06</v>
+    <v>78.06</v>
+    <v>1151493000</v>
     <v>TJX</v>
     <v>THE TJX COMPANIES, INC. (XNYS:TJX)</v>
-    <v>2476878</v>
-    <v>4369829</v>
+    <v>3981634</v>
+    <v>3911150</v>
     <v>1962</v>
   </rv>
   <rv s="2">
@@ -2592,6 +2576,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2612,6 +2598,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2628,7 +2615,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2639,13 +2626,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2711,13 +2701,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2762,6 +2758,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2769,6 +2768,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3130,10 +3132,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU120" sqref="AU120"/>
+      <selection pane="bottomRight" activeCell="AO98" sqref="AO98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5301,15 +5303,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>1.8005428486462671</v>
+        <v>1.8000148906600448</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>25.703804371069182</v>
+        <v>25.696267461406517</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>34.226078298439283</v>
+        <v>34.21604247430529</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -13229,10 +13231,10 @@
       <c r="AL83" s="1">
         <v>58000000</v>
       </c>
-      <c r="AS83" s="59" t="s">
+      <c r="AS83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AT83" s="60"/>
+      <c r="AT83" s="62"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13349,10 +13351,10 @@
       <c r="AL84" s="1">
         <v>-600000000</v>
       </c>
-      <c r="AS84" s="61" t="s">
+      <c r="AS84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AT84" s="62"/>
+      <c r="AT84" s="64"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14490,10 +14492,10 @@
       <c r="AL93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AS93" s="61" t="s">
+      <c r="AS93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AT93" s="62"/>
+      <c r="AT93" s="64"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14737,7 +14739,7 @@
       </c>
       <c r="AT95" s="38" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.90920000000000001</v>
+        <v>0.90680000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14982,7 +14984,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.0091060000000006E-2</v>
+        <v>7.9987740000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15100,10 +15102,10 @@
       <c r="AL98" s="1">
         <v>-1339000000</v>
       </c>
-      <c r="AS98" s="61" t="s">
+      <c r="AS98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AT98" s="62"/>
+      <c r="AT98" s="64"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15348,7 +15350,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>0.12414287971116375</v>
+        <v>0.12417477029960694</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15471,7 +15473,7 @@
       </c>
       <c r="AT101" s="39" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>89911907690</v>
+        <v>89885543580</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15594,7 +15596,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.87585712028883622</v>
+        <v>0.87582522970039312</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15717,7 +15719,7 @@
       </c>
       <c r="AT103" s="40">
         <f>AT99+AT101</f>
-        <v>102655907690</v>
+        <v>102629543580</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15835,10 +15837,10 @@
       <c r="AL104" s="11">
         <v>5477000000</v>
       </c>
-      <c r="AS104" s="61" t="s">
+      <c r="AS104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AT104" s="62"/>
+      <c r="AT104" s="64"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16000,7 +16002,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.0104224655480302E-2</v>
+        <v>7.0011168912902488E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16194,7 +16196,7 @@
       <c r="AP107" s="42"/>
       <c r="AQ107" s="45">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>106119545294.57053</v>
+        <v>106401599090.43127</v>
       </c>
       <c r="AR107" s="46" t="s">
         <v>148</v>
@@ -16225,7 +16227,7 @@
       </c>
       <c r="AQ108" s="45">
         <f>AQ107+AQ106</f>
-        <v>109718815206.02756</v>
+        <v>110000869001.88831</v>
       </c>
       <c r="AR108" s="46" t="s">
         <v>144</v>
@@ -16235,14 +16237,14 @@
       </c>
       <c r="AT108" s="50">
         <f>AT105</f>
-        <v>7.0104224655480302E-2</v>
+        <v>7.0011168912902488E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="63" t="s">
+      <c r="AM109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="AN109" s="64"/>
+      <c r="AN109" s="60"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="51" t="s">
@@ -16250,7 +16252,7 @@
       </c>
       <c r="AN110" s="39">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>88573278304.698486</v>
+        <v>88810626250.983414</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16277,7 +16279,7 @@
       </c>
       <c r="AN113" s="39">
         <f>AN110+AN111-AN112</f>
-        <v>81306278304.698486</v>
+        <v>81543626250.983414</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16295,7 +16297,7 @@
       </c>
       <c r="AN115" s="54">
         <f>AN113/AN114</f>
-        <v>71.186166571760253</v>
+        <v>71.393972054829916</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16304,7 +16306,7 @@
       </c>
       <c r="AN116" s="55" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>78.010000000000005</v>
+        <v>78.06</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16313,7 +16315,7 @@
       </c>
       <c r="AN117" s="57">
         <f>AN115/AN116-1</f>
-        <v>-8.7473829358284183E-2</v>
+        <v>-8.5396207342686159E-2</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/TJX Companies.xlsx
+++ b/Consumer/TJX Companies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE166662-D369-074B-A7CC-F4D1105FB77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDD454E-44B8-9D46-82A8-F45E98C739E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,12 +2513,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>83.129900000000006</v>
-    <v>53.69</v>
-    <v>0.90680000000000005</v>
-    <v>0.08</v>
-    <v>1.026E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>54.55</v>
+    <v>0.91149999999999998</v>
+    <v>0.43</v>
+    <v>5.2769999999999996E-3</v>
     <v>USD</v>
     <v>The TJX Companies, Inc. is an off-price apparel and home fashions retailer in the United States and worldwide. The Company’s segments include Marmaxx and HomeGoods, TJX Canada and TJX International. The T.J. Maxx and Marshalls chains in the United States (Marmaxx) are collectively the off-price retailers in the United States with a total of 2,482 stores. HomeGoods segment is an off-price retailer of home fashions in the United States with approximately 894 stores. HomeGoods offers an eclectic assortment of home fashions, including furniture, rugs, lighting, soft home, decorative accessories, tabletop and cookware, as well as expanded pet and gourmet food departments. The TJX Canada segment operates the Winners, HomeSense and Marshalls chains in Canada. Winners is the off-price family apparel and home fashions retailer in Canada. The TJX International segment operates the T.K. Maxx and Homesense chains in Europe and the T.K. Maxx chain in Australia.</v>
     <v>329000</v>
@@ -2526,25 +2524,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>770 Cochituate Rd, FRAMINGHAM, MA, 01701 US</v>
-    <v>78.349999999999994</v>
+    <v>82.29</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45057.998924628904</v>
+    <v>45100.782157349218</v>
     <v>0</v>
-    <v>77.435000000000002</v>
-    <v>89885543580</v>
+    <v>81.064999999999998</v>
+    <v>93639950000</v>
     <v>THE TJX COMPANIES, INC.</v>
     <v>THE TJX COMPANIES, INC.</v>
-    <v>78.17</v>
-    <v>26.226700000000001</v>
-    <v>77.98</v>
-    <v>78.06</v>
-    <v>78.06</v>
-    <v>1151493000</v>
+    <v>81.180000000000007</v>
+    <v>25.116099999999999</v>
+    <v>81.48</v>
+    <v>81.91</v>
+    <v>1149239000</v>
     <v>TJX</v>
     <v>THE TJX COMPANIES, INC. (XNYS:TJX)</v>
-    <v>3981634</v>
-    <v>3911150</v>
+    <v>2092231</v>
+    <v>5632849</v>
     <v>1962</v>
   </rv>
   <rv s="2">
@@ -2576,8 +2573,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2598,7 +2593,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2615,7 +2609,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2626,16 +2620,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2701,19 +2692,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2758,9 +2743,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2768,9 +2750,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3132,10 +3111,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO98" sqref="AO98"/>
+      <selection pane="bottomRight" activeCell="AN97" sqref="AN97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5303,15 +5282,15 @@
       </c>
       <c r="AS16" s="30">
         <f>AT101/AL3</f>
-        <v>1.8000148906600448</v>
+        <v>1.8751992550464596</v>
       </c>
       <c r="AT16" s="30">
         <f>AT101/AL28</f>
-        <v>25.696267461406517</v>
+        <v>26.769568324757003</v>
       </c>
       <c r="AU16" s="31">
         <f>AT101/AL106</f>
-        <v>34.21604247430529</v>
+        <v>35.645203654358582</v>
       </c>
     </row>
     <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
@@ -14739,7 +14718,7 @@
       </c>
       <c r="AT95" s="38" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.90680000000000005</v>
+        <v>0.91149999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14984,7 +14963,7 @@
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>7.9987740000000002E-2</v>
+        <v>8.0190075E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15350,7 +15329,7 @@
       </c>
       <c r="AT100" s="34">
         <f>AT99/AT103</f>
-        <v>0.12417477029960694</v>
+        <v>0.11979250629441753</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15473,7 +15452,7 @@
       </c>
       <c r="AT101" s="39" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>89885543580</v>
+        <v>93639950000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15596,7 +15575,7 @@
       </c>
       <c r="AT102" s="34">
         <f>AT101/AT103</f>
-        <v>0.87582522970039312</v>
+        <v>0.88020749370558249</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15719,7 +15698,7 @@
       </c>
       <c r="AT103" s="40">
         <f>AT99+AT101</f>
-        <v>102629543580</v>
+        <v>106383950000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16002,7 +15981,7 @@
       </c>
       <c r="AT105" s="26">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.0011168912902488E-2</v>
+        <v>7.0541349845479578E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16196,7 +16175,7 @@
       <c r="AP107" s="42"/>
       <c r="AQ107" s="45">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>106401599090.43127</v>
+        <v>104814374652.45361</v>
       </c>
       <c r="AR107" s="46" t="s">
         <v>148</v>
@@ -16227,7 +16206,7 @@
       </c>
       <c r="AQ108" s="45">
         <f>AQ107+AQ106</f>
-        <v>110000869001.88831</v>
+        <v>108413644563.91064</v>
       </c>
       <c r="AR108" s="46" t="s">
         <v>144</v>
@@ -16237,7 +16216,7 @@
       </c>
       <c r="AT108" s="50">
         <f>AT105</f>
-        <v>7.0011168912902488E-2</v>
+        <v>7.0541349845479578E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16252,7 +16231,7 @@
       </c>
       <c r="AN110" s="39">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>88810626250.983414</v>
+        <v>87474987536.830978</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16279,7 +16258,7 @@
       </c>
       <c r="AN113" s="39">
         <f>AN110+AN111-AN112</f>
-        <v>81543626250.983414</v>
+        <v>80207987536.830978</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16297,7 +16276,7 @@
       </c>
       <c r="AN115" s="54">
         <f>AN113/AN114</f>
-        <v>71.393972054829916</v>
+        <v>70.22457896529464</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16306,7 +16285,7 @@
       </c>
       <c r="AN116" s="55" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>78.06</v>
+        <v>81.91</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
@@ -16315,7 +16294,7 @@
       </c>
       <c r="AN117" s="57">
         <f>AN115/AN116-1</f>
-        <v>-8.5396207342686159E-2</v>
+        <v>-0.14266171450012644</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/TJX Companies.xlsx
+++ b/Consumer/TJX Companies.xlsx
@@ -1,20 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDD454E-44B8-9D46-82A8-F45E98C739E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C20171D-F2EE-6442-B071-D140F12C2BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$105</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$A$28</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$B$105:$AL$105</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$B$1:$AL$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$28:$AL$28</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$A$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$105:$AL$105</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$1:$AL$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$B$28:$AL$28</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$B$3:$AL$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$A$105</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +363,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +528,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -551,16 +566,48 @@
   <si>
     <t>Buy/Sell</t>
   </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -723,7 +770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -829,22 +876,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -852,47 +890,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -934,98 +937,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,9 +1078,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>TJX</a:t>
+              <a:t>TJX Companies</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1115,10 +1116,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.271973466003317E-2"/>
-          <c:y val="0.10951457325471579"/>
-          <c:w val="0.86951907131011608"/>
-          <c:h val="0.74957282476067066"/>
+          <c:x val="9.6831683168316821E-2"/>
+          <c:y val="0.1584412876108468"/>
+          <c:w val="0.84244224422442238"/>
+          <c:h val="0.62883860476426301"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1172,6 +1173,126 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AL$3</c:f>
@@ -1294,7 +1415,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9882-2A46-A273-E2247DC639C2}"/>
+              <c16:uniqueId val="{00000000-3A72-3145-A719-8A689366B7E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1303,11 +1424,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1345,129 +1466,249 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AL$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AL$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>119900000</c:v>
+                  <c:v>52200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142200000</c:v>
+                  <c:v>66700000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-85200000</c:v>
+                  <c:v>-167900000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>178100000</c:v>
+                  <c:v>82800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>172000000</c:v>
+                  <c:v>74100000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128000000</c:v>
+                  <c:v>20100000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>234800000</c:v>
+                  <c:v>102800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>275400000</c:v>
+                  <c:v>124300000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>218300000</c:v>
+                  <c:v>82600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157500000</c:v>
+                  <c:v>26300000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>642200000</c:v>
+                  <c:v>363100000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>645400000</c:v>
+                  <c:v>304800000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>831500000</c:v>
+                  <c:v>424200000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1009176000</c:v>
+                  <c:v>521668000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1040723000</c:v>
+                  <c:v>538066000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1038125000</c:v>
+                  <c:v>500397000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1145600000</c:v>
+                  <c:v>578388000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1316919000</c:v>
+                  <c:v>658365000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1368131000</c:v>
+                  <c:v>664144000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1414802000</c:v>
+                  <c:v>690423000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1631045000</c:v>
+                  <c:v>738039000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1669455000</c:v>
+                  <c:v>771750000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1869607000</c:v>
+                  <c:v>880617000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2436058000</c:v>
+                  <c:v>1213572000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2674769000</c:v>
+                  <c:v>1343141000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2943798000</c:v>
+                  <c:v>1496090000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3627112000</c:v>
+                  <c:v>1906687000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3914403000</c:v>
+                  <c:v>2137396000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4194239000</c:v>
+                  <c:v>2215128000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4335265000</c:v>
+                  <c:v>2277658000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4443510000</c:v>
+                  <c:v>2298234000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4646840000</c:v>
+                  <c:v>2607948000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5057705000</c:v>
+                  <c:v>3059798000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5283509000</c:v>
+                  <c:v>3272193000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1453030000</c:v>
+                  <c:v>90470000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5385122000</c:v>
+                  <c:v>3282815000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5517000000</c:v>
+                  <c:v>3498000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9882-2A46-A273-E2247DC639C2}"/>
+              <c16:uniqueId val="{00000001-3A72-3145-A719-8A689366B7E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1476,11 +1717,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Unlevered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1518,9 +1759,129 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AL$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AL$106</c:f>
+              <c:f>'Sheet 1'!$B$105:$AL$105</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1534,113 +1895,113 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21500000</c:v>
+                  <c:v>13349482.312338233</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46000000</c:v>
+                  <c:v>70700388.265746325</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16100000</c:v>
+                  <c:v>121947670.40552199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30700000</c:v>
+                  <c:v>69553235.547886103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-41400000</c:v>
+                  <c:v>6490940.4659188986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-23300000</c:v>
+                  <c:v>13934641.932700604</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>129000000</c:v>
+                  <c:v>210927049.18032786</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>594600000</c:v>
+                  <c:v>611252761.00086284</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>214400000</c:v>
+                  <c:v>239510828.30025882</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>435100000</c:v>
+                  <c:v>554571656.60051775</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>339401000</c:v>
+                  <c:v>482792906.81622088</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>299758000</c:v>
+                  <c:v>435333235.54788613</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>463002000</c:v>
+                  <c:v>528739622.51941323</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>511836000</c:v>
+                  <c:v>602676355.04745471</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>361463000</c:v>
+                  <c:v>431213213.1147542</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>650698000</c:v>
+                  <c:v>770843930.97497845</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>662071000</c:v>
+                  <c:v>834761492.23468494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>817022000</c:v>
+                  <c:v>977435941.32873154</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>834120000</c:v>
+                  <c:v>1058542103.1061258</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>571640000</c:v>
+                  <c:v>593407405.09059525</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1842644000</c:v>
+                  <c:v>2056813337.7911992</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1269347000</c:v>
+                  <c:v>1408272864.1069887</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1112704000</c:v>
+                  <c:v>1290573120.793788</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2067386000</c:v>
+                  <c:v>2486396339.0854182</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1643651000</c:v>
+                  <c:v>2003240801.5530629</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2096847000</c:v>
+                  <c:v>2499586359.3615184</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2047963000</c:v>
+                  <c:v>2517737427.9551339</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2577147000</c:v>
+                  <c:v>3102073692.4072475</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1968007000</c:v>
+                  <c:v>2291527610.8714409</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2963320000</c:v>
+                  <c:v>3033244181.622088</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2843600000</c:v>
+                  <c:v>2832261147.9723902</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3993900000</c:v>
+                  <c:v>4161809866.2640209</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2012691000</c:v>
+                  <c:v>1757938501.294219</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2627000000</c:v>
+                  <c:v>2102472821.3977566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9882-2A46-A273-E2247DC639C2}"/>
+              <c16:uniqueId val="{00000002-3A72-3145-A719-8A689366B7E4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1654,11 +2015,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1375958720"/>
-        <c:axId val="1375998752"/>
+        <c:axId val="717608527"/>
+        <c:axId val="717610255"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1375958720"/>
+        <c:axId val="717608527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,7 +2059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375998752"/>
+        <c:crossAx val="717610255"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1706,7 +2067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1375998752"/>
+        <c:axId val="717610255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1755,7 +2116,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1375958720"/>
+        <c:crossAx val="717608527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,10 +2134,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.354603987934344"/>
-          <c:y val="0.92586406153399092"/>
-          <c:w val="0.30405891800838331"/>
-          <c:h val="4.8245968429433246E-2"/>
+          <c:x val="0.33804984277955352"/>
+          <c:y val="0.90378465017486986"/>
+          <c:w val="0.3318210025726982"/>
+          <c:h val="6.2614742945736587E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2356,22 +2717,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804FFBC4-C33A-F1C7-6451-4524A35C277E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EF5846B-30C5-B152-F977-70FE2EE42474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,6 +2751,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.2480000000000004E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2512,11 +2933,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>83.129900000000006</v>
-    <v>54.55</v>
-    <v>0.91149999999999998</v>
-    <v>0.43</v>
-    <v>5.2769999999999996E-3</v>
+    <v>93.78</v>
+    <v>59.78</v>
+    <v>0.89759999999999995</v>
+    <v>-1.0900000000000001</v>
+    <v>-1.1647000000000001E-2</v>
     <v>USD</v>
     <v>The TJX Companies, Inc. is an off-price apparel and home fashions retailer in the United States and worldwide. The Company’s segments include Marmaxx and HomeGoods, TJX Canada and TJX International. The T.J. Maxx and Marshalls chains in the United States (Marmaxx) are collectively the off-price retailers in the United States with a total of 2,482 stores. HomeGoods segment is an off-price retailer of home fashions in the United States with approximately 894 stores. HomeGoods offers an eclectic assortment of home fashions, including furniture, rugs, lighting, soft home, decorative accessories, tabletop and cookware, as well as expanded pet and gourmet food departments. The TJX Canada segment operates the Winners, HomeSense and Marshalls chains in Canada. Winners is the off-price family apparel and home fashions retailer in Canada. The TJX International segment operates the T.K. Maxx and Homesense chains in Europe and the T.K. Maxx chain in Australia.</v>
     <v>329000</v>
@@ -2524,24 +2945,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>770 Cochituate Rd, FRAMINGHAM, MA, 01701 US</v>
-    <v>82.29</v>
+    <v>93.4</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45100.782157349218</v>
+    <v>45184.807202198441</v>
     <v>0</v>
-    <v>81.064999999999998</v>
-    <v>93639950000</v>
+    <v>92.46</v>
+    <v>107074500000</v>
     <v>THE TJX COMPANIES, INC.</v>
     <v>THE TJX COMPANIES, INC.</v>
-    <v>81.180000000000007</v>
-    <v>25.116099999999999</v>
-    <v>81.48</v>
-    <v>81.91</v>
-    <v>1149239000</v>
+    <v>93.21</v>
+    <v>27.453600000000002</v>
+    <v>93.59</v>
+    <v>92.5</v>
+    <v>1144081000</v>
     <v>TJX</v>
     <v>THE TJX COMPANIES, INC. (XNYS:TJX)</v>
-    <v>2092231</v>
-    <v>5632849</v>
+    <v>3276407</v>
+    <v>5666456</v>
     <v>1962</v>
   </rv>
   <rv s="2">
@@ -3111,10 +3532,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AJ87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AD77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN97" sqref="AN97"/>
+      <selection pane="bottomRight" activeCell="AP96" sqref="AP96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3239,20 +3660,20 @@
       <c r="AL1" s="8">
         <v>2023</v>
       </c>
-      <c r="AM1" s="27">
-        <v>2023</v>
-      </c>
-      <c r="AN1" s="27">
+      <c r="AM1" s="23">
         <v>2024</v>
       </c>
-      <c r="AO1" s="27">
+      <c r="AN1" s="23">
         <v>2025</v>
       </c>
-      <c r="AP1" s="27">
+      <c r="AO1" s="23">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="27">
+      <c r="AP1" s="23">
         <v>2027</v>
+      </c>
+      <c r="AQ1" s="23">
+        <v>2028</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.25">
@@ -3260,124 +3681,124 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="9"/>
@@ -3501,202 +3922,202 @@
       <c r="AL3" s="1">
         <v>49936000000</v>
       </c>
-      <c r="AM3" s="28">
-        <v>53146000000</v>
-      </c>
-      <c r="AN3" s="28">
-        <v>55850000000</v>
-      </c>
-      <c r="AO3" s="28">
-        <v>58952000000</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>61836000000</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>68353000000</v>
+      <c r="AM3" s="24">
+        <v>53766000000</v>
+      </c>
+      <c r="AN3" s="24">
+        <v>56426000000</v>
+      </c>
+      <c r="AO3" s="24">
+        <v>59868000000</v>
+      </c>
+      <c r="AP3" s="24">
+        <v>63442000000</v>
+      </c>
+      <c r="AQ3" s="24">
+        <v>67193000000</v>
       </c>
       <c r="AR3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AT3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AU3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AU3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="68">
         <f>(C3/B3)-1</f>
         <v>0.17861752473827619</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="68">
         <f>(D3/C3)-1</f>
         <v>0.16858307477033518</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="68">
         <f>(E3/D3)-1</f>
         <v>0.11864847980008331</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="68">
         <f t="shared" ref="F4:AQ4" si="0">(F3/E3)-1</f>
         <v>0.1385023502582956</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="68">
         <f t="shared" si="0"/>
         <v>0.12729428115930186</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="68">
         <f t="shared" si="0"/>
         <v>0.18257968597019247</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="68">
         <f t="shared" si="0"/>
         <v>0.11204464614252418</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="68">
         <f t="shared" si="0"/>
         <v>5.9615066453427401E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="68">
         <f t="shared" si="0"/>
         <v>0.15735921723743096</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="68">
         <f t="shared" si="0"/>
         <v>0.50408094435075879</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="68">
         <f t="shared" si="0"/>
         <v>0.10459831972972156</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="68">
         <f t="shared" si="0"/>
         <v>7.578730833254399E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="68">
         <f t="shared" si="0"/>
         <v>0.10645821539545364</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="68">
         <f t="shared" si="0"/>
         <v>8.9099270330096125E-2</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="68">
         <f t="shared" si="0"/>
         <v>0.11796547574978034</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="68">
         <f t="shared" si="0"/>
         <v>0.11879813592270727</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="68">
         <f t="shared" si="0"/>
         <v>0.112403616764154</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="68">
         <f t="shared" si="0"/>
         <v>0.11896401378817933</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="68">
         <f t="shared" si="0"/>
         <v>7.6739417612907701E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="68">
         <f t="shared" si="0"/>
         <v>8.3865204336672106E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="68">
         <f t="shared" si="0"/>
         <v>7.1388389197660329E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="68">
         <f t="shared" si="0"/>
         <v>1.8897228452255943E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="68">
         <f t="shared" si="0"/>
         <v>6.7840662164619481E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="68">
         <f t="shared" si="0"/>
         <v>8.1511869515473956E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="68">
         <f t="shared" si="0"/>
         <v>5.6934236245210323E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="68">
         <f t="shared" si="0"/>
         <v>0.11585806065208071</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="68">
         <f t="shared" si="0"/>
         <v>5.9676242384953726E-2</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="68">
         <f t="shared" si="0"/>
         <v>6.0377396883223966E-2</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="68">
         <f t="shared" si="0"/>
         <v>6.4189589202737318E-2</v>
       </c>
-      <c r="AF4" s="16">
+      <c r="AF4" s="68">
         <f t="shared" si="0"/>
         <v>7.2348052531241214E-2</v>
       </c>
-      <c r="AG4" s="16">
+      <c r="AG4" s="68">
         <f t="shared" si="0"/>
         <v>8.0790160386965404E-2</v>
       </c>
-      <c r="AH4" s="16">
+      <c r="AH4" s="68">
         <f t="shared" si="0"/>
         <v>8.6666642129980653E-2</v>
       </c>
-      <c r="AI4" s="16">
+      <c r="AI4" s="68">
         <f t="shared" si="0"/>
         <v>7.0408940727942015E-2</v>
       </c>
-      <c r="AJ4" s="16">
+      <c r="AJ4" s="68">
         <f t="shared" si="0"/>
         <v>-0.22964307792484584</v>
       </c>
-      <c r="AK4" s="16">
+      <c r="AK4" s="68">
         <f t="shared" si="0"/>
         <v>0.51072095738234369</v>
       </c>
-      <c r="AL4" s="16">
+      <c r="AL4" s="68">
         <f t="shared" si="0"/>
         <v>2.854827011058414E-2</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>6.4282281320089618E-2</v>
+        <v>7.6698173662287816E-2</v>
       </c>
       <c r="AN4" s="16">
         <f t="shared" si="0"/>
-        <v>5.087871147405254E-2</v>
+        <v>4.9473645054495474E-2</v>
       </c>
       <c r="AO4" s="16">
         <f t="shared" si="0"/>
-        <v>5.5541629364368905E-2</v>
+        <v>6.1000248112572208E-2</v>
       </c>
       <c r="AP4" s="16">
         <f t="shared" si="0"/>
-        <v>4.8921156194870363E-2</v>
+        <v>5.9698002271664219E-2</v>
       </c>
       <c r="AQ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.10539168122129494</v>
+        <v>5.9124869959963355E-2</v>
       </c>
       <c r="AR4" s="17">
         <f>(AL4+AK4+AJ4)/3</f>
@@ -3711,7 +4132,7 @@
         <v>11.4598081767164</v>
       </c>
       <c r="AU4" s="17">
-        <f>(AL105+AK105+AJ105)/3</f>
+        <f>(AL106+AK106+AJ106)/3</f>
         <v>7.1227145865341956E-2</v>
       </c>
     </row>
@@ -3947,16 +4368,16 @@
         <v>13787000000</v>
       </c>
       <c r="AR6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AS6" s="19" t="s">
+      <c r="AT6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AU6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4087,7 +4508,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AU7" s="20">
-        <f>AL106/AL3</f>
+        <f>AL107/AL3</f>
         <v>5.2607337391861582E-2</v>
       </c>
     </row>
@@ -4209,7 +4630,7 @@
     </row>
     <row r="9" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -4360,16 +4781,16 @@
         <v>0</v>
       </c>
       <c r="AR9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AS9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AU9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AU9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4377,115 +4798,115 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR10" s="17">
         <f>AL9</f>
@@ -4509,115 +4930,115 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -4625,10 +5046,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1">
         <v>12000000</v>
@@ -4736,21 +5157,21 @@
         <v>8927000000</v>
       </c>
       <c r="AR12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AT12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AU12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4967,70 +5388,70 @@
         <v>175781000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1">
         <v>-11550000</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -5149,16 +5570,16 @@
         <v>8927000000</v>
       </c>
       <c r="AR15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AT15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AU15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5276,95 +5697,95 @@
       <c r="AL16" s="1">
         <v>45076000000</v>
       </c>
-      <c r="AR16" s="29">
+      <c r="AR16" s="25">
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-1.2080869017318252E-2</v>
       </c>
-      <c r="AS16" s="30">
+      <c r="AS16" s="48">
         <f>AT101/AL3</f>
-        <v>1.8751992550464596</v>
-      </c>
-      <c r="AT16" s="30">
+        <v>2.1442346203140019</v>
+      </c>
+      <c r="AT16" s="48">
         <f>AT101/AL28</f>
-        <v>26.769568324757003</v>
-      </c>
-      <c r="AU16" s="31">
-        <f>AT101/AL106</f>
-        <v>35.645203654358582</v>
+        <v>30.610205831903944</v>
+      </c>
+      <c r="AU16" s="49">
+        <f>AT101/AL107</f>
+        <v>40.759231062047967</v>
       </c>
     </row>
-    <row r="17" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y17" s="1">
         <v>49278000</v>
@@ -5409,7 +5830,7 @@
         <v>-6000000</v>
       </c>
     </row>
-    <row r="18" spans="1:44" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5525,10 +5946,19 @@
         <v>887000000</v>
       </c>
       <c r="AR18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AS18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AT18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5643,14 +6073,41 @@
       <c r="AL19" s="10">
         <v>5517000000</v>
       </c>
-      <c r="AR19" s="32">
+      <c r="AM19" s="52">
+        <v>6637000000</v>
+      </c>
+      <c r="AN19" s="52">
+        <v>7143000000</v>
+      </c>
+      <c r="AO19" s="52">
+        <v>7795000000</v>
+      </c>
+      <c r="AP19" s="52">
+        <v>8371000000</v>
+      </c>
+      <c r="AQ19" s="52">
+        <v>8836000000</v>
+      </c>
+      <c r="AR19" s="26">
         <f>AL40-AL56-AL61</f>
         <v>-7267000000</v>
       </c>
+      <c r="AS19" s="48">
+        <f>AT101/AM3</f>
+        <v>1.9914909050329204</v>
+      </c>
+      <c r="AT19" s="48">
+        <f>AT101/AM28</f>
+        <v>24.889470013947001</v>
+      </c>
+      <c r="AU19" s="49">
+        <f>AT101/AM106</f>
+        <v>31.335820895522389</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5666,7 +6123,7 @@
         <v>-3.09037558685446</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AL20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AQ20" si="3">(F19/E19)-1</f>
         <v>-3.425042111173493E-2</v>
       </c>
       <c r="G20" s="15">
@@ -5797,8 +6254,28 @@
         <f t="shared" si="3"/>
         <v>2.4489324475842844E-2</v>
       </c>
+      <c r="AM20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.20300888163857178</v>
+      </c>
+      <c r="AN20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.6239264728039879E-2</v>
+      </c>
+      <c r="AO20" s="16">
+        <f t="shared" si="3"/>
+        <v>9.1278174436511206E-2</v>
+      </c>
+      <c r="AP20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.3893521488133329E-2</v>
+      </c>
+      <c r="AQ20" s="16">
+        <f t="shared" si="3"/>
+        <v>5.5548918886632492E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5913,8 +6390,34 @@
       <c r="AL21" s="2">
         <v>0.1105</v>
       </c>
+      <c r="AM21" s="53">
+        <f>AM19/AM3</f>
+        <v>0.12344232414537068</v>
+      </c>
+      <c r="AN21" s="53">
+        <f t="shared" ref="AN21:AQ21" si="4">AN19/AN3</f>
+        <v>0.12659057881118632</v>
+      </c>
+      <c r="AO21" s="53">
+        <f t="shared" si="4"/>
+        <v>0.13020311351640276</v>
+      </c>
+      <c r="AP21" s="53">
+        <f t="shared" si="4"/>
+        <v>0.13194729043851078</v>
+      </c>
+      <c r="AQ21" s="53">
+        <f t="shared" si="4"/>
+        <v>0.13150179334156831</v>
+      </c>
+      <c r="AT21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -6029,8 +6532,16 @@
       <c r="AL22" s="10">
         <v>4630000000</v>
       </c>
+      <c r="AT22" s="50">
+        <f>(-1*AL98)/AT101</f>
+        <v>1.2505311722212104E-2</v>
+      </c>
+      <c r="AU22" s="51">
+        <f>AL107/AT101</f>
+        <v>2.4534319562547573E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -6146,7 +6657,7 @@
         <v>9.2700000000000005E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -6262,7 +6773,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="25" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -6378,7 +6889,7 @@
         <v>4636000000</v>
       </c>
     </row>
-    <row r="26" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -6494,7 +7005,7 @@
         <v>9.2799999999999994E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6610,7 +7121,7 @@
         <v>1138000000</v>
       </c>
     </row>
-    <row r="28" spans="1:44" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6725,10 +7236,25 @@
       <c r="AL28" s="11">
         <v>3498000000</v>
       </c>
+      <c r="AM28" s="54">
+        <v>4302000000</v>
+      </c>
+      <c r="AN28" s="54">
+        <v>4611000000</v>
+      </c>
+      <c r="AO28" s="54">
+        <v>5073000000</v>
+      </c>
+      <c r="AP28" s="54">
+        <v>5643000000</v>
+      </c>
+      <c r="AQ28" s="54">
+        <v>6036000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:44" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6744,139 +7270,159 @@
         <v>-1.4931506849315068</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AL29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AQ29" si="5">(F28/E28)-1</f>
         <v>-0.10507246376811596</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.72874493927125505</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1144278606965177</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20914396887159525</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.33547868061142394</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.68159806295399517</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.806083650190114</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.1605618286973286</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.3917322834645669</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22976897689768983</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1433785472752884E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.0008140265320651E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15585824855065078</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13827569036702014</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.7778056245395586E-3</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.9568226167818965E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8966416240478612E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5676447992585745E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14106511175898939</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37809285989255259</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10676663601335568</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1138741204385838</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.27444672446176366</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12099993339231863</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6367617418578524E-2</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8228617037028947E-2</v>
       </c>
       <c r="AF29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.0338409014873999E-3</v>
       </c>
       <c r="AG29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.13476173444479533</v>
       </c>
       <c r="AH29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17325882264523673</v>
       </c>
       <c r="AI29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.9414712997393879E-2</v>
       </c>
       <c r="AJ29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.97235187533253697</v>
       </c>
       <c r="AK29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35.286227478722232</v>
       </c>
       <c r="AL29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.5548926759503745E-2</v>
       </c>
+      <c r="AM29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22984562607204118</v>
+      </c>
+      <c r="AN29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.1827057182705767E-2</v>
+      </c>
+      <c r="AO29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10019518542615491</v>
+      </c>
+      <c r="AP29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.11235955056179781</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="5"/>
+        <v>6.964380648591173E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6991,8 +7537,28 @@
       <c r="AL30" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="AM30" s="55">
+        <f>AM28/AM3</f>
+        <v>8.0013391362571143E-2</v>
+      </c>
+      <c r="AN30" s="55">
+        <f t="shared" ref="AN30:AQ30" si="6">AN28/AN3</f>
+        <v>8.1717647892815368E-2</v>
+      </c>
+      <c r="AO30" s="55">
+        <f t="shared" si="6"/>
+        <v>8.4736420124273404E-2</v>
+      </c>
+      <c r="AP30" s="55">
+        <f t="shared" si="6"/>
+        <v>8.8947385013082816E-2</v>
+      </c>
+      <c r="AQ30" s="55">
+        <f t="shared" si="6"/>
+        <v>8.9830785944964506E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -7107,8 +7673,23 @@
       <c r="AL31" s="12">
         <v>2.96</v>
       </c>
+      <c r="AM31" s="56">
+        <v>3.76</v>
+      </c>
+      <c r="AN31" s="56">
+        <v>4.03</v>
+      </c>
+      <c r="AO31" s="56">
+        <v>4.43</v>
+      </c>
+      <c r="AP31" s="56">
+        <v>4.93</v>
+      </c>
+      <c r="AQ31" s="56">
+        <v>5.28</v>
+      </c>
     </row>
-    <row r="32" spans="1:44" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7458,7 +8039,7 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -7466,143 +8047,143 @@
         <v>0.11463903764204546</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AL35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AL35" si="7">(D34-C34)/C34</f>
         <v>0.15657036316406103</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.1383476718387693E-2</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11855086542077505</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6269519676868522E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2970441794338956E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.1760700224278328E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.3936806148590939E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.8735632327586205E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.19276285875632587</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0631572176229931E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.2493426544882656E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0660160912803667E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.9979128531249578E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.8252110259197433E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3307206585295249E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.6241678134414398E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.3870424314743973E-4</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.1254347516526901E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.3306205493387588E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4995573331666823E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.510355819727121E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3094029462640333E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.9590874119251019E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.8047183530054403E-2</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3882073789178208E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.8331025810809908E-2</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.1431379891406104E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.8845347490210293E-2</v>
       </c>
       <c r="AF35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.7543318634001269E-2</v>
       </c>
       <c r="AG35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.7582958075468973E-2</v>
       </c>
       <c r="AH35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.5505142353023116E-2</v>
       </c>
       <c r="AI35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.5994002788957252E-2</v>
       </c>
       <c r="AJ35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.3916196976973048E-3</v>
       </c>
       <c r="AK35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8641975308641976E-4</v>
       </c>
       <c r="AL35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7611,115 +8192,115 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -7727,115 +8308,115 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -7843,28 +8424,28 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J38" s="1">
         <v>42000000</v>
@@ -7959,73 +8540,73 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1">
         <v>130636000</v>
@@ -8055,19 +8636,19 @@
         <v>506165000</v>
       </c>
       <c r="AH39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -8075,28 +8656,28 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J40" s="1">
         <v>42000000</v>
@@ -8191,28 +8772,28 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1">
         <v>43000000</v>
@@ -8307,28 +8888,28 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1">
         <v>938000000</v>
@@ -8423,28 +9004,28 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J43" s="1">
         <v>23000000</v>
@@ -8539,28 +9120,28 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="10">
         <v>1046000000</v>
@@ -8655,28 +9236,28 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J45" s="1">
         <v>488000000</v>
@@ -8771,64 +9352,64 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V46" s="1">
         <v>182898000</v>
@@ -8849,16 +9430,16 @@
         <v>179935000</v>
       </c>
       <c r="AB46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF46" s="1">
         <v>195871000</v>
@@ -8887,28 +9468,28 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1">
         <v>90000000</v>
@@ -8947,13 +9528,13 @@
         <v>183425000</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y47" s="1">
         <v>107694000</v>
@@ -8962,40 +9543,40 @@
         <v>107736000</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9003,28 +9584,28 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1">
         <v>90000000</v>
@@ -9119,115 +9700,115 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -9235,28 +9816,28 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1">
         <v>34000000</v>
@@ -9268,52 +9849,52 @@
         <v>7000000</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U50" s="1">
         <v>6395000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1">
         <v>31508000</v>
@@ -9351,28 +9932,28 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J51" s="1">
         <v>-20000000</v>
@@ -9467,28 +10048,28 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J52" s="1">
         <v>592000000</v>
@@ -9583,115 +10164,115 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -9699,28 +10280,28 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="11">
         <v>1638000000</v>
@@ -9815,28 +10396,28 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J55" s="1">
         <v>439000000</v>
@@ -9931,52 +10512,52 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1">
         <v>20000000</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1">
         <v>23400000</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1">
         <v>39000000</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1">
         <v>16348000</v>
@@ -10009,25 +10590,25 @@
         <v>2970000</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI56" s="1">
         <v>1411200000</v>
@@ -10047,73 +10628,73 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1">
         <v>136737000</v>
@@ -10163,115 +10744,115 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10279,28 +10860,28 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J59" s="1">
         <v>299000000</v>
@@ -10395,28 +10976,28 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J60" s="10">
         <v>758000000</v>
@@ -10511,28 +11092,28 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1">
         <v>239000000</v>
@@ -10627,115 +11208,115 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -10743,52 +11324,52 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1">
         <v>6900000</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1">
         <v>41969000</v>
@@ -10800,7 +11381,7 @@
         <v>152553000</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1">
         <v>21525000</v>
@@ -10859,28 +11440,28 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1">
         <v>34000000</v>
@@ -10895,7 +11476,7 @@
         <v>-100000</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1">
         <v>1000000</v>
@@ -10975,28 +11556,28 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1">
         <v>273000000</v>
@@ -11091,115 +11672,115 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11207,28 +11788,28 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J67" s="10">
         <v>1031000000</v>
@@ -11323,28 +11904,28 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1">
         <v>72000000</v>
@@ -11356,7 +11937,7 @@
         <v>80000000</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1">
         <v>322000000</v>
@@ -11439,28 +12020,28 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J69" s="1">
         <v>159000000</v>
@@ -11555,28 +12136,28 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1">
         <v>-378000000</v>
@@ -11671,28 +12252,28 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1">
         <v>754000000</v>
@@ -11710,7 +12291,7 @@
         <v>3000000</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P71" s="1">
         <v>3000000</v>
@@ -11719,55 +12300,55 @@
         <v>7000000</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI71" s="1">
         <v>-12000</v>
@@ -11776,10 +12357,10 @@
         <v>260531000</v>
       </c>
       <c r="AK71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11787,28 +12368,28 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="10">
         <v>607000000</v>
@@ -11903,28 +12484,28 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J73" s="11">
         <v>1638000000</v>
@@ -12019,115 +12600,115 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AI74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AJ74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AK74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:38" ht="21" x14ac:dyDescent="0.25">
@@ -12135,115 +12716,115 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12251,13 +12832,13 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E76" s="1">
         <v>82800000</v>
@@ -12326,7 +12907,7 @@
         <v>1343141000</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB76" s="1">
         <v>1906687000</v>
@@ -12367,13 +12948,13 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E77" s="1">
         <v>41900000</v>
@@ -12483,13 +13064,13 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>21500000</v>
@@ -12513,7 +13094,7 @@
         <v>-14100000</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1">
         <v>-3800000</v>
@@ -12599,76 +13180,76 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z79" s="1">
         <v>58804000</v>
@@ -12712,154 +13293,154 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AL80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AL80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6799509055453119E-3</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7671829990830676E-3</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.489182858952642E-3</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7743442876659538E-3</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0267820379568937E-3</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0411112796542039E-3</v>
       </c>
       <c r="AF80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0813581493396285E-3</v>
       </c>
       <c r="AG80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8262358738394984E-3</v>
       </c>
       <c r="AH80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6571517556260968E-3</v>
       </c>
       <c r="AI80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.9963820245172607E-3</v>
       </c>
       <c r="AJ80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8203338573198051E-3</v>
       </c>
       <c r="AK80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8938840389271413E-3</v>
       </c>
       <c r="AL80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.443127202819609E-3</v>
       </c>
     </row>
@@ -12868,13 +13449,13 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1">
         <v>-75100000</v>
@@ -12984,73 +13565,73 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1">
         <v>-1862000</v>
@@ -13100,13 +13681,13 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1">
         <v>-46300000</v>
@@ -13210,83 +13791,83 @@
       <c r="AL83" s="1">
         <v>58000000</v>
       </c>
-      <c r="AS83" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT83" s="62"/>
+      <c r="AS83" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT83" s="31"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1">
         <v>197496000</v>
@@ -13330,56 +13911,56 @@
       <c r="AL84" s="1">
         <v>-600000000</v>
       </c>
-      <c r="AS84" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT84" s="64"/>
+      <c r="AS84" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT84" s="32"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1">
         <v>-6026000</v>
@@ -13388,25 +13969,25 @@
         <v>-19382000</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y85" s="1">
         <v>-33700000</v>
@@ -13415,28 +13996,28 @@
         <v>70900000</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI85" s="1">
         <v>217400000</v>
@@ -13450,10 +14031,10 @@
       <c r="AL85" s="1">
         <v>-155000000</v>
       </c>
-      <c r="AS85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT85" s="24">
+      <c r="AS85" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT85" s="34">
         <f>AL17</f>
         <v>-6000000</v>
       </c>
@@ -13463,13 +14044,13 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E86" s="1">
         <v>16200000</v>
@@ -13573,10 +14154,10 @@
       <c r="AL86" s="1">
         <v>334000000</v>
       </c>
-      <c r="AS86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT86" s="24">
+      <c r="AS86" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT86" s="34">
         <f>AL56</f>
         <v>2110000000</v>
       </c>
@@ -13586,13 +14167,13 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E87" s="10">
         <v>87300000</v>
@@ -13696,10 +14277,10 @@
       <c r="AL87" s="10">
         <v>4084000000</v>
       </c>
-      <c r="AS87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT87" s="24">
+      <c r="AS87" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT87" s="34">
         <f>AL61</f>
         <v>10634000000</v>
       </c>
@@ -13709,13 +14290,13 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E88" s="1">
         <v>-65800000</v>
@@ -13819,170 +14400,170 @@
       <c r="AL88" s="1">
         <v>-1457000000</v>
       </c>
-      <c r="AS88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT88" s="34">
+      <c r="AS88" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT88" s="36">
         <f>AT85/(AT86+AT87)</f>
         <v>-4.7080979284369113E-4</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AL89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D89" s="15" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0623167496625865E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3356497567755383E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2454581716647932E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3085980620630444E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4688137649589147E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3257000104090766E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5137717818999438E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7819236403862827E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0531458499681963E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6128744134556112E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7124455692310947E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6830028084333594E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.196881911827792E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3112189781880907E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0690193786915877E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8774834155106489E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0884917643520166E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1718982131026347E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8261030681081899E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0681430910963207E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.11589415137011E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2227134270489739E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4639051322998063E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.7800986862697547E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4521696918494084E-2</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.134704043450523E-2</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8740726512362053E-2</v>
+      </c>
+      <c r="AF89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0880994019240264E-2</v>
+      </c>
+      <c r="AG89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9489109391907312E-2</v>
+      </c>
+      <c r="AH89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8869753557686985E-2</v>
+      </c>
+      <c r="AI89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9318998833496493E-2</v>
+      </c>
+      <c r="AJ89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7674352665942722E-2</v>
+      </c>
+      <c r="AK89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1519966783921773E-2</v>
+      </c>
+      <c r="AL89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9177347004165331E-2</v>
+      </c>
+      <c r="AS89" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AL89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0623167496625865E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3356497567755383E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2454581716647932E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3085980620630444E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4688137649589147E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3257000104090766E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5137717818999438E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.7819236403862827E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0531458499681963E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6128744134556112E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7124455692310947E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6830028084333594E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.196881911827792E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3112189781880907E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0690193786915877E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8774834155106489E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0884917643520166E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1718982131026347E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8261030681081899E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0681430910963207E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.11589415137011E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2227134270489739E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4639051322998063E-2</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.7800986862697547E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4521696918494084E-2</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.134704043450523E-2</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8740726512362053E-2</v>
-      </c>
-      <c r="AF89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0880994019240264E-2</v>
-      </c>
-      <c r="AG89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9489109391907312E-2</v>
-      </c>
-      <c r="AH89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8869753557686985E-2</v>
-      </c>
-      <c r="AI89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9318998833496493E-2</v>
-      </c>
-      <c r="AJ89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.7674352665942722E-2</v>
-      </c>
-      <c r="AK89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1519966783921773E-2</v>
-      </c>
-      <c r="AL89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9177347004165331E-2</v>
-      </c>
-      <c r="AS89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT89" s="24">
+      <c r="AT89" s="34">
         <f>AL27</f>
         <v>1138000000</v>
       </c>
@@ -13992,82 +14573,82 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>-57138000</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1">
         <v>-190374000</v>
@@ -14076,7 +14657,7 @@
         <v>2653000</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE90" s="1">
         <v>-57104000</v>
@@ -14085,27 +14666,27 @@
         <v>-2324000</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI90" s="1">
         <v>-230200000</v>
       </c>
       <c r="AJ90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS90" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="24">
+      <c r="AT90" s="34">
         <f>AL25</f>
         <v>4636000000</v>
       </c>
@@ -14115,73 +14696,73 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="1">
         <v>-278692000</v>
@@ -14225,10 +14806,10 @@
       <c r="AL91" s="1">
         <v>-31000000</v>
       </c>
-      <c r="AS91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT91" s="34">
+      <c r="AS91" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT91" s="36">
         <f>AT89/AT90</f>
         <v>0.24547023295944781</v>
       </c>
@@ -14238,73 +14819,73 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1">
         <v>153275000</v>
@@ -14349,7 +14930,7 @@
         <v>18000000</v>
       </c>
       <c r="AS92" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AT92" s="36">
         <f>AT88*(1-AT91)</f>
@@ -14361,13 +14942,13 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1">
         <v>178600000</v>
@@ -14376,16 +14957,16 @@
         <v>-1000000</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1">
         <v>-375800000</v>
@@ -14400,7 +14981,7 @@
         <v>9400000</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1">
         <v>-13917000</v>
@@ -14442,19 +15023,19 @@
         <v>34490000</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH93" s="1">
         <v>26652000</v>
@@ -14463,31 +15044,31 @@
         <v>7400000</v>
       </c>
       <c r="AJ93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS93" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT93" s="64"/>
+        <v>91</v>
+      </c>
+      <c r="AS93" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT93" s="32"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E94" s="10">
         <v>112800000</v>
@@ -14591,11 +15172,12 @@
       <c r="AL94" s="10">
         <v>-1470000000</v>
       </c>
-      <c r="AS94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT94" s="37">
-        <v>4.095E-2</v>
+      <c r="AS94" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT94" s="67">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.2480000000000004E-2</v>
       </c>
     </row>
     <row r="95" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14603,73 +15185,73 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-395747000</v>
@@ -14684,13 +15266,13 @@
         <v>-1456000</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD95" s="1">
         <v>-416357000</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF95" s="1">
         <v>-425584000</v>
@@ -14702,7 +15284,7 @@
         <v>-7115000</v>
       </c>
       <c r="AI95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AJ95" s="1">
         <v>-2418300000</v>
@@ -14711,14 +15293,14 @@
         <v>-2975518000</v>
       </c>
       <c r="AL95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS95" s="23" t="s">
-        <v>136</v>
+        <v>91</v>
+      </c>
+      <c r="AS95" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="AT95" s="38" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.91149999999999998</v>
+        <v>0.89759999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14726,13 +15308,13 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>8000000</v>
@@ -14777,7 +15359,7 @@
         <v>33916000</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1">
         <v>96861000</v>
@@ -14836,8 +15418,8 @@
       <c r="AL96" s="1">
         <v>321000000</v>
       </c>
-      <c r="AS96" s="23" t="s">
-        <v>137</v>
+      <c r="AS96" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="AT96" s="37">
         <v>8.4000000000000005E-2</v>
@@ -14848,37 +15430,37 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1">
         <v>-19300000</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1">
         <v>-245200000</v>
@@ -14959,11 +15541,11 @@
         <v>-2255000000</v>
       </c>
       <c r="AS97" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AT97" s="36">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.0190075E-2</v>
+        <v>7.9748351999999995E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -14971,13 +15553,13 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1">
         <v>-25200000</v>
@@ -15081,23 +15663,23 @@
       <c r="AL98" s="1">
         <v>-1339000000</v>
       </c>
-      <c r="AS98" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT98" s="64"/>
+      <c r="AS98" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT98" s="32"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>-251500000</v>
@@ -15201,10 +15783,10 @@
       <c r="AL99" s="1">
         <v>-33000000</v>
       </c>
-      <c r="AS99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT99" s="24">
+      <c r="AS99" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT99" s="34">
         <f>AT86+AT87</f>
         <v>12744000000</v>
       </c>
@@ -15214,13 +15796,13 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E100" s="10">
         <v>-268700000</v>
@@ -15324,12 +15906,12 @@
       <c r="AL100" s="10">
         <v>-3306000000</v>
       </c>
-      <c r="AS100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT100" s="34">
+      <c r="AS100" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT100" s="36">
         <f>AT99/AT103</f>
-        <v>0.11979250629441753</v>
+        <v>0.10636087081711088</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15337,46 +15919,46 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P101" s="1">
         <v>-1165000</v>
@@ -15447,12 +16029,12 @@
       <c r="AL101" s="1">
         <v>-58000000</v>
       </c>
-      <c r="AS101" s="23" t="s">
-        <v>142</v>
+      <c r="AS101" s="33" t="s">
+        <v>141</v>
       </c>
       <c r="AT101" s="39" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>93639950000</v>
+        <v>107074500000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15460,13 +16042,13 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E102" s="10">
         <v>-268700000</v>
@@ -15570,12 +16152,12 @@
       <c r="AL102" s="10">
         <v>-750000000</v>
       </c>
-      <c r="AS102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT102" s="34">
+      <c r="AS102" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT102" s="36">
         <f>AT101/AT103</f>
-        <v>0.88020749370558249</v>
+        <v>0.89363912918288912</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15583,13 +16165,13 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E103" s="1">
         <v>122700000</v>
@@ -15693,12 +16275,15 @@
       <c r="AL103" s="1">
         <v>6227000000</v>
       </c>
+      <c r="AR103" s="28" t="s">
+        <v>165</v>
+      </c>
       <c r="AS103" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AT103" s="40">
         <f>AT99+AT101</f>
-        <v>106383950000</v>
+        <v>119818500000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15706,43 +16291,43 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O104" s="11">
         <v>371759000</v>
@@ -15816,427 +16401,576 @@
       <c r="AL104" s="11">
         <v>5477000000</v>
       </c>
-      <c r="AS104" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT104" s="64"/>
+      <c r="AM104" s="58">
+        <f>(AM106/AL105)-1</f>
+        <v>0.62522909462787979</v>
+      </c>
+      <c r="AN104" s="58">
+        <f>(AN106/AM106)-1</f>
+        <v>0.11384255194615167</v>
+      </c>
+      <c r="AO104" s="58">
+        <f>(AO106/AN106)-1</f>
+        <v>0.12716763005780352</v>
+      </c>
+      <c r="AP104" s="58">
+        <f>(AP106/AO106)-1</f>
+        <v>9.1608391608391626E-2</v>
+      </c>
+      <c r="AQ104" s="58">
+        <f>(AQ106/AP106)-1</f>
+        <v>3.9718129404228142E-2</v>
+      </c>
+      <c r="AR104" s="58">
+        <f>SUM(AM104:AQ104)/5</f>
+        <v>0.19951315952889095</v>
+      </c>
+      <c r="AS104" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT104" s="32"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AK105" si="10">(B22*(1-$AT$91))+B77+B88+B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D105" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>13349482.312338233</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>70700388.265746325</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>121947670.40552199</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>69553235.547886103</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>6490940.4659188986</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>13934641.932700604</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>210927049.18032786</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>611252761.00086284</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>239510828.30025882</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>554571656.60051775</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>482792906.81622088</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>435333235.54788613</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>528739622.51941323</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>602676355.04745471</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>431213213.1147542</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>770843930.97497845</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>834761492.23468494</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>977435941.32873154</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>1058542103.1061258</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>593407405.09059525</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>2056813337.7911992</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>1408272864.1069887</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>1290573120.793788</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>2486396339.0854182</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>2003240801.5530629</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>2499586359.3615184</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>2517737427.9551339</v>
+      </c>
+      <c r="AF105" s="1">
+        <f t="shared" si="10"/>
+        <v>3102073692.4072475</v>
+      </c>
+      <c r="AG105" s="1">
+        <f t="shared" si="10"/>
+        <v>2291527610.8714409</v>
+      </c>
+      <c r="AH105" s="1">
+        <f t="shared" si="10"/>
+        <v>3033244181.622088</v>
+      </c>
+      <c r="AI105" s="1">
+        <f t="shared" si="10"/>
+        <v>2832261147.9723902</v>
+      </c>
+      <c r="AJ105" s="1">
+        <f t="shared" si="10"/>
+        <v>4161809866.2640209</v>
+      </c>
+      <c r="AK105" s="1">
+        <f t="shared" si="10"/>
+        <v>1757938501.294219</v>
+      </c>
+      <c r="AL105" s="1">
+        <f>(AL22*(1-$AT$91))+AL77+AL88+AL81</f>
+        <v>2102472821.3977566</v>
+      </c>
+      <c r="AM105" s="27">
+        <f>AL105*(1+$AT$106)</f>
+        <v>2231142029.9699526</v>
+      </c>
+      <c r="AN105" s="27">
+        <f t="shared" ref="AN105:AQ105" si="11">AM105*(1+$AT$106)</f>
+        <v>2367685663.8693633</v>
+      </c>
+      <c r="AO105" s="27">
+        <f t="shared" si="11"/>
+        <v>2512585629.955617</v>
+      </c>
+      <c r="AP105" s="27">
+        <f t="shared" si="11"/>
+        <v>2666353327.3003712</v>
+      </c>
+      <c r="AQ105" s="27">
+        <f t="shared" si="11"/>
+        <v>2829531452.0808363</v>
+      </c>
+      <c r="AR105" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS105" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15" t="e">
-        <f>(D106/C106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E105" s="15" t="e">
-        <f>(E106/D106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>1.13953488372093</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.65</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AL105" si="8">(H106/G106)-1</f>
-        <v>0.9068322981366459</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.3485342019543971</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.4371980676328503</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.5364806866952794</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.6093023255813952</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.63942145980491083</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.0293843283582089</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.21994713858883019</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.11680283794096069</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.54458596601258358</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.10547254655487448</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.29379137067341887</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.80017871815372521</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.7478154228228737E-2</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.23403985373169944</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.0927221054023004E-2</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.31467894307773459</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.2234343292981595</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.31112738000395079</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.12340439611863419</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.85798379443230188</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.20496172461262674</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.27572519957095509</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.3313098189805981E-2</v>
-      </c>
-      <c r="AF105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.25839529327434141</v>
-      </c>
-      <c r="AG105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.23636214775486231</v>
-      </c>
-      <c r="AH105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.50574667671405638</v>
-      </c>
-      <c r="AI105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.0400631723877312E-2</v>
-      </c>
-      <c r="AJ105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.40452243634829088</v>
-      </c>
-      <c r="AK105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.49605873957785618</v>
-      </c>
-      <c r="AL105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.30521774082559117</v>
-      </c>
-      <c r="AM105" s="15"/>
-      <c r="AN105" s="15"/>
-      <c r="AO105" s="15"/>
-      <c r="AP105" s="15"/>
-      <c r="AQ105" s="15"/>
-      <c r="AR105" s="15"/>
-      <c r="AS105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT105" s="26">
+      <c r="AT105" s="42">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.0541349845479578E-2</v>
+        <v>7.1228464198948876E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" s="1">
-        <v>21500000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>46000000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>16100000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>30700000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-41400000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>-23300000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>129000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>594600000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>214400000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>435100000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>339401000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>299758000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>463002000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>511836000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>361463000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>650698000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>662071000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>817022000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>834120000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>571640000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>1842644000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1269347000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1112704000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>2067386000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>1643651000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>2096847000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>2047963000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>2577147000</v>
-      </c>
-      <c r="AG106" s="1">
-        <v>1968007000</v>
-      </c>
-      <c r="AH106" s="1">
-        <v>2963320000</v>
-      </c>
-      <c r="AI106" s="1">
-        <v>2843600000</v>
-      </c>
-      <c r="AJ106" s="1">
-        <v>3993900000</v>
-      </c>
-      <c r="AK106" s="1">
-        <v>2012691000</v>
-      </c>
-      <c r="AL106" s="1">
-        <v>2627000000</v>
-      </c>
-      <c r="AM106" s="41">
-        <f>AL106*(1+$AT$106)</f>
-        <v>2797763122.460535</v>
-      </c>
-      <c r="AN106" s="41">
-        <f t="shared" ref="AN106:AQ106" si="9">AM106*(1+$AT$106)</f>
-        <v>2979626375.8660536</v>
-      </c>
-      <c r="AO106" s="41">
-        <f t="shared" si="9"/>
-        <v>3173311303.0486403</v>
-      </c>
-      <c r="AP106" s="41">
-        <f t="shared" si="9"/>
-        <v>3379586349.3554144</v>
-      </c>
-      <c r="AQ106" s="41">
-        <f t="shared" si="9"/>
-        <v>3599269911.4570251</v>
-      </c>
-      <c r="AR106" s="42" t="s">
-        <v>146</v>
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f>(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15" t="e">
+        <f>(D107/C107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="15" t="e">
+        <f>(E107/D107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>1.13953488372093</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-0.65</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>0.9068322981366459</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-2.3485342019543971</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>-0.4371980676328503</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-6.5364806866952794</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>3.6093023255813952</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-0.63942145980491083</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>1.0293843283582089</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-0.21994713858883019</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-0.11680283794096069</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.54458596601258358</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>0.10547254655487448</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>-0.29379137067341887</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>0.80017871815372521</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>1.7478154228228737E-2</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.23403985373169944</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>2.0927221054023004E-2</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>-0.31467894307773459</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>2.2234343292981595</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>-0.31112738000395079</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>-0.12340439611863419</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>0.85798379443230188</v>
+      </c>
+      <c r="AC106" s="15">
+        <f>(AC107/AB107)-1</f>
+        <v>-0.20496172461262674</v>
+      </c>
+      <c r="AD106" s="15">
+        <f>(AD107/AC107)-1</f>
+        <v>0.27572519957095509</v>
+      </c>
+      <c r="AE106" s="15">
+        <f>(AE107/AD107)-1</f>
+        <v>-2.3313098189805981E-2</v>
+      </c>
+      <c r="AF106" s="15">
+        <f>(AF107/AE107)-1</f>
+        <v>0.25839529327434141</v>
+      </c>
+      <c r="AG106" s="15">
+        <f>(AG107/AF107)-1</f>
+        <v>-0.23636214775486231</v>
+      </c>
+      <c r="AH106" s="15">
+        <f>(AH107/AG107)-1</f>
+        <v>0.50574667671405638</v>
+      </c>
+      <c r="AI106" s="15">
+        <f>(AI107/AH107)-1</f>
+        <v>-4.0400631723877312E-2</v>
+      </c>
+      <c r="AJ106" s="15">
+        <f>(AJ107/AI107)-1</f>
+        <v>0.40452243634829088</v>
+      </c>
+      <c r="AK106" s="15">
+        <f>(AK107/AJ107)-1</f>
+        <v>-0.49605873957785618</v>
+      </c>
+      <c r="AL106" s="15">
+        <f>(AL107/AK107)-1</f>
+        <v>0.30521774082559117</v>
+      </c>
+      <c r="AM106" s="59">
+        <v>3417000000</v>
+      </c>
+      <c r="AN106" s="59">
+        <v>3806000000</v>
+      </c>
+      <c r="AO106" s="59">
+        <v>4290000000</v>
+      </c>
+      <c r="AP106" s="59">
+        <v>4683000000</v>
+      </c>
+      <c r="AQ106" s="59">
+        <v>4869000000</v>
+      </c>
+      <c r="AR106" s="28" t="s">
+        <v>167</v>
       </c>
       <c r="AS106" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AT106" s="44">
         <f>(SUM(AM4:AQ4)/5)</f>
-        <v>6.5003091914935279E-2</v>
+        <v>6.1198987812196612E-2</v>
       </c>
     </row>
     <row r="107" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="13"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="13"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="13"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="42"/>
-      <c r="AN107" s="42"/>
-      <c r="AO107" s="42"/>
-      <c r="AP107" s="42"/>
-      <c r="AQ107" s="45">
+      <c r="A107" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="1">
+        <v>21500000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>46000000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>16100000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>30700000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-41400000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>-23300000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>129000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>594600000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>214400000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>435100000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>339401000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>299758000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>463002000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>511836000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>361463000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>650698000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>662071000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>817022000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>834120000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>571640000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1842644000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1269347000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1112704000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>2067386000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>1643651000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>2096847000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>2047963000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>2577147000</v>
+      </c>
+      <c r="AG107" s="1">
+        <v>1968007000</v>
+      </c>
+      <c r="AH107" s="1">
+        <v>2963320000</v>
+      </c>
+      <c r="AI107" s="1">
+        <v>2843600000</v>
+      </c>
+      <c r="AJ107" s="1">
+        <v>3993900000</v>
+      </c>
+      <c r="AK107" s="1">
+        <v>2012691000</v>
+      </c>
+      <c r="AL107" s="1">
+        <v>2627000000</v>
+      </c>
+      <c r="AM107" s="28"/>
+      <c r="AN107" s="28"/>
+      <c r="AO107" s="28"/>
+      <c r="AP107" s="28"/>
+      <c r="AQ107" s="69">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>104814374652.45361</v>
-      </c>
-      <c r="AR107" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="AS107" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT107" s="48">
-        <v>3.5000000000000003E-2</v>
+        <v>107957836940.50293</v>
+      </c>
+      <c r="AR107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS107" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT107" s="46">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="45">
-        <f t="shared" ref="AM108:AO108" si="10">AM107+AM106</f>
-        <v>2797763122.460535</v>
-      </c>
-      <c r="AN108" s="45">
-        <f t="shared" si="10"/>
-        <v>2979626375.8660536</v>
-      </c>
-      <c r="AO108" s="45">
-        <f t="shared" si="10"/>
-        <v>3173311303.0486403</v>
-      </c>
-      <c r="AP108" s="45">
+      <c r="AM108" s="69">
+        <f t="shared" ref="AM108:AO108" si="12">AM107+AM106</f>
+        <v>3417000000</v>
+      </c>
+      <c r="AN108" s="69">
+        <f t="shared" si="12"/>
+        <v>3806000000</v>
+      </c>
+      <c r="AO108" s="69">
+        <f t="shared" si="12"/>
+        <v>4290000000</v>
+      </c>
+      <c r="AP108" s="69">
         <f>AP107+AP106</f>
-        <v>3379586349.3554144</v>
-      </c>
-      <c r="AQ108" s="45">
+        <v>4683000000</v>
+      </c>
+      <c r="AQ108" s="69">
         <f>AQ107+AQ106</f>
-        <v>108413644563.91064</v>
-      </c>
-      <c r="AR108" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS108" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT108" s="50">
+        <v>112826836940.50293</v>
+      </c>
+      <c r="AR108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS108" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT108" s="44">
         <f>AT105</f>
-        <v>7.0541349845479578E-2</v>
+        <v>7.1228464198948876E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="59" t="s">
-        <v>151</v>
+      <c r="AM109" s="60" t="s">
+        <v>149</v>
       </c>
       <c r="AN109" s="60"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="51" t="s">
-        <v>152</v>
+      <c r="AM110" s="61" t="s">
+        <v>150</v>
       </c>
       <c r="AN110" s="39">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>87474987536.830978</v>
+        <v>93536419742.609055</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="51" t="s">
-        <v>153</v>
+      <c r="AM111" s="61" t="s">
+        <v>151</v>
       </c>
       <c r="AN111" s="39">
         <f>AL40</f>
@@ -16244,8 +16978,8 @@
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="51" t="s">
-        <v>140</v>
+      <c r="AM112" s="61" t="s">
+        <v>139</v>
       </c>
       <c r="AN112" s="39">
         <f>AT99</f>
@@ -16253,55 +16987,55 @@
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="51" t="s">
-        <v>154</v>
+      <c r="AM113" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="AN113" s="39">
         <f>AN110+AN111-AN112</f>
-        <v>80207987536.830978</v>
+        <v>86269419742.609055</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN114" s="52">
+      <c r="AM114" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN114" s="61">
         <f>AL34*(1+(AR16*5))</f>
         <v>1142164021.7518456</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN115" s="54">
+      <c r="AM115" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN115" s="63">
         <f>AN113/AN114</f>
-        <v>70.22457896529464</v>
+        <v>75.531550722714442</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN116" s="55" cm="1">
+      <c r="AM116" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN116" s="64" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price")</f>
-        <v>81.91</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="AN117" s="57">
+      <c r="AM117" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN117" s="65">
         <f>AN115/AN116-1</f>
-        <v>-0.14266171450012644</v>
+        <v>-0.18344269488957354</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN118" s="58" t="str">
+      <c r="AM118" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN118" s="66" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -16392,8 +17126,9 @@
     <hyperlink ref="AL36" r:id="rId74" tooltip="https://www.sec.gov/Archives/edgar/data/109198/000010919823000004/0000109198-23-000004-index.htm" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="AL74" r:id="rId75" tooltip="https://www.sec.gov/Archives/edgar/data/109198/000010919823000004/0000109198-23-000004-index.htm" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="AM1" r:id="rId76" display="https://finbox.com/NYSE:TJX/explorer/revenue_proj" xr:uid="{060D1A4A-CC41-F243-9D90-7FFDE0BF9A43}"/>
+    <hyperlink ref="AR106" r:id="rId77" xr:uid="{4A15017F-1F29-2145-89E5-0A9E39EFE042}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId77"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>